--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754701.0285815212</v>
+        <v>832380.5194300305</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12560720.06231649</v>
+        <v>12441881.51229507</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5217681.962273034</v>
+        <v>5567936.647039156</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9785818.890160911</v>
+        <v>9638584.400029004</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>111.6900678992317</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759558</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>182.9377227717321</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0059677968616</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.65963851412518</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396657</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.264216864854</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7427643629146</v>
+        <v>192.0665623188218</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7875959384519</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671984</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496182</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>108.509216096509</v>
+        <v>246.458094302423</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>158.1556649146111</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>211.9723868103377</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>64.57009008111672</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>112.283405059887</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.82801639720899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>65.07920555086216</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>111.9187566128687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902071</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>126.7498226612768</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971809</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>126.7498226612777</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.803067157084</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694737</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>92.47445699814396</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>77.26146212640266</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.9083821604494</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>58.9280504799215</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>242.6334155076106</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.01006515217659</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>148.6151831671111</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>141.1762660121947</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744764</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>190.1921129400383</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2612,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>67.88571179025713</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>81.72898226868554</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>184.1477353216906</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>168.1158122680962</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>123.9334245782914</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>329.8144471918069</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>168.1158122680962</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.7472987768081</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>131.9809553984402</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>131.9809553984406</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>149.0579043067403</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.72703424640825</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>248.2949166645746</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>186.6141597285334</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.93482921065095</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3800,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>267.7473854578243</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>148.6151831671134</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.49505480544778</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>143.9764333632488</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>235.9375844494528</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>188.219639431212</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>233.4396776561412</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2160.591147174959</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C2" t="n">
-        <v>1791.628630234547</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D2" t="n">
-        <v>1433.362931627797</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1047.574679029552</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>636.5887742399448</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>221.5040554958097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>108.6858050925453</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951945</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369595</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319024</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900982</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
-        <v>1566.921495383895</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.554760801561</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106873</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356408</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.534341412641</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2937.330319214892</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>2547.190987239081</v>
+        <v>2377.55374984285</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1687.281923832321</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>1512.828894551194</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>1363.894484889943</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1204.657029884487</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1058.122471911372</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>921.7528074700978</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>831.1875160416885</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I3" t="n">
-        <v>822.1822450675504</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>915.2516762093051</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>1152.476982636378</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.778223703862</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1963.424410055476</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>2435.27416981395</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2844.704721461207</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>3153.975768949901</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>3310.796077475972</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>3310.796077475972</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3181.236262460968</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2988.566803508529</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2760.49852478282</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2525.346416551077</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2271.109059822876</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2063.257559617343</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1855.497260852389</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.53741610928</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6012331813729</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="D4" t="n">
-        <v>772.4845937690371</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="E4" t="n">
-        <v>624.571500186644</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>477.6815526887336</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>309.9732127967294</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>163.7070969704486</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951945</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501788</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>314.317742817943</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886842</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897968</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.970173580891</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213391</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.492540894131</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891643</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.573279765419</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1831.573279765419</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1831.573279765419</v>
+        <v>2339.360847594891</v>
       </c>
       <c r="U4" t="n">
-        <v>1831.573279765419</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V4" t="n">
-        <v>1831.573279765419</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="W4" t="n">
-        <v>1721.968010981067</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="X4" t="n">
-        <v>1493.978460083049</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.185880939519</v>
+        <v>1546.610451890394</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1221.525483338121</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C5" t="n">
-        <v>852.5629663977095</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D5" t="n">
-        <v>494.2972677909589</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>108.5090151927147</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>108.5090151927147</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3055.56195625282</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3055.56195625282</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2724.499068909249</v>
+        <v>2348.225806369511</v>
       </c>
       <c r="W5" t="n">
-        <v>2371.730413639134</v>
+        <v>1995.457151099396</v>
       </c>
       <c r="X5" t="n">
-        <v>1998.264655378055</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1608.125323402243</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1934.049742367933</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1934.049742367933</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1575.784043761183</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1189.995791162939</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>779.009886373331</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>363.9251676291959</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3104.764624111271</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2991.347043242698</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2660.284155899128</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993392</v>
+        <v>2307.515500629013</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732312</v>
+        <v>1934.049742367933</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1934.049742367933</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520676</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365796</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>1009.360893790384</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>840.4247108624769</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>690.3080714501411</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.571500186644</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>477.6815526887336</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>309.9732127967294</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.7070969704486</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1831.57327976542</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1639.791488662171</v>
       </c>
       <c r="X10" t="n">
-        <v>477.7578170212613</v>
+        <v>1411.801937764154</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>1191.009358620624</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>194.542240332463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>194.542240332463</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>194.542240332463</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>194.542240332463</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5224,25 +5226,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1133.32083113111</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C14" t="n">
-        <v>764.3583141906979</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D14" t="n">
-        <v>406.0926155839475</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5300,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1519.920671195231</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5425,28 +5427,28 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1134.908724368017</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>214.4252100145765</v>
+        <v>686.1265943264694</v>
       </c>
       <c r="C19" t="n">
-        <v>214.4252100145765</v>
+        <v>686.1265943264694</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>536.0099549141337</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>388.0968613317406</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251691</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X19" t="n">
-        <v>362.8175152271517</v>
+        <v>906.9191734699996</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.4252100145765</v>
+        <v>686.1265943264694</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2065.110222835253</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.147705894841</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.882007288091</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>952.0937546898465</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>541.107849900239</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>126.0353997452355</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,22 +5752,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>3080.521563520676</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2749.458676177105</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136266</v>
+        <v>2396.690020906991</v>
       </c>
       <c r="X20" t="n">
-        <v>2841.849394875187</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y20" t="n">
-        <v>2451.710062899375</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5831,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2246.382089998689</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C22" t="n">
-        <v>2077.445907070782</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>1927.329267658446</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>1779.416174076053</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>1632.526226578143</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
         <v>1464.823389952862</v>
@@ -5932,28 +5934,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178698</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U22" t="n">
-        <v>2814.736339304341</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>2560.051851098454</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>2270.634681061494</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X22" t="n">
-        <v>2270.634681061494</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>2270.634681061494</v>
+        <v>1540.3362096043</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1698.509627919559</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C23" t="n">
-        <v>1329.547110979147</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D23" t="n">
-        <v>971.2814123723965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>3150.225125372327</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>2928.458509941853</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>1867.264433926632</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>1646.471854783102</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.321240915451</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="27">
@@ -6294,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031477</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6409,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1844.740020544366</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1555.63715367001</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>1300.952665464123</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>1011.535495427162</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2175.400891308157</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1806.438374367745</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1448.172675760994</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.38442316275</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>651.3985183731427</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>236.3260682181391</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6464,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6500,13 +6502,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.60582160917</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.14006334809</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.000731372279</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6543,7 +6545,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
         <v>765.1517452158131</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
         <v>66.5121164321834</v>
@@ -6658,13 +6660,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1611.504630229389</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C32" t="n">
-        <v>1611.504630229389</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X32" t="n">
-        <v>2388.243802269323</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y32" t="n">
-        <v>1998.104470293511</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.8377936138381</v>
+        <v>2094.569543786101</v>
       </c>
       <c r="C34" t="n">
-        <v>163.8377936138381</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="D34" t="n">
-        <v>163.8377936138381</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="E34" t="n">
-        <v>163.8377936138381</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="F34" t="n">
-        <v>163.8377936138381</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8377936138381</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>2638.671202028949</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2383.986713823062</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>2094.569543786101</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>2094.569543786101</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.8377936138381</v>
+        <v>2094.569543786101</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1689.318139675982</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1320.35562273557</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1067.881466499387</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>656.895561709779</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>241.8231115547755</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3192.291725247109</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2839.523069976995</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>2466.057311715915</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>2075.917979740103</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2246.382089998688</v>
+        <v>1929.306953064062</v>
       </c>
       <c r="C37" t="n">
-        <v>2077.445907070781</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="D37" t="n">
-        <v>1927.329267658446</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="E37" t="n">
-        <v>1779.416174076052</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="F37" t="n">
-        <v>1632.526226578142</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H37" t="n">
         <v>1464.823389952861</v>
@@ -7093,7 +7095,7 @@
         <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
         <v>1713.933205348673</v>
@@ -7105,40 +7107,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U37" t="n">
-        <v>3036.502954734814</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="V37" t="n">
-        <v>2781.818466528927</v>
+        <v>2849.15471797281</v>
       </c>
       <c r="W37" t="n">
-        <v>2492.401296491967</v>
+        <v>2559.737547935849</v>
       </c>
       <c r="X37" t="n">
-        <v>2492.401296491967</v>
+        <v>2331.747997037832</v>
       </c>
       <c r="Y37" t="n">
-        <v>2428.030554828928</v>
+        <v>2110.955417894302</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1986.901740067214</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>1067.881466499388</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>656.8955617097804</v>
       </c>
       <c r="G38" t="n">
         <v>406.0926155839475</v>
@@ -7169,19 +7171,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7193,7 +7195,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7205,19 +7207,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3137.106670368228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3137.106670368228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>3137.106670368228</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>2763.640912107148</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>2373.501580131336</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,40 +7259,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.4780323548191</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="C40" t="n">
-        <v>364.5418494269122</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>85.63820654395207</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7357,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U40" t="n">
-        <v>1708.010285469454</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1453.325797263567</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.908627226606</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X40" t="n">
-        <v>935.919076328589</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.1264971850588</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.35562273557</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7418,43 +7420,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W41" t="n">
-        <v>2470.560553036583</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X41" t="n">
-        <v>2097.094794775503</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y41" t="n">
-        <v>1706.955462799692</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>463.6594280995014</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C43" t="n">
-        <v>294.7232451715945</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D43" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E43" t="n">
-        <v>146.8101515892014</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F43" t="n">
-        <v>146.8101515892014</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>146.8101515892014</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1781.863807317535</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V43" t="n">
-        <v>1383.507193008249</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W43" t="n">
-        <v>1094.090022971289</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X43" t="n">
-        <v>866.1004720732712</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y43" t="n">
-        <v>645.3078929297411</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1032.06112435253</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>663.0986074121186</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>304.832908805368</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416652</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992584</v>
@@ -7746,25 +7748,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672848</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672848</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U46" t="n">
-        <v>1409.980552474725</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.296064268838</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W46" t="n">
-        <v>865.8788942318774</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X46" t="n">
-        <v>637.8893433338601</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.09676419033</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0.546395060290962</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>183.0420857196479</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.464536558263</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>203.3002158843215</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.8639731922165</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>178.013782240082</v>
+        <v>40.06490403416799</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>45.76230522500907</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>115.7798716597972</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>80.85095794181453</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>138.7127385712742</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.4099222588446</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>81.35475709570701</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23230,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.9530049144599</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>167.8579417260437</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.59472895491385</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>255.1805474109841</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,10 +23512,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>209.4348714989696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>136.9698866949899</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>277.2566436803251</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>68.15958589652858</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.67627119164538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>235.679713907399</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>8.361756451291427</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.8219150297607</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>233.3151869051507</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>265.6997797295168</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24412,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696548</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>191.7382571322235</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>281.3552569271559</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,10 +24651,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>137.8199670074837</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>181.1251564493169</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>126.4919521192243</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.09238368073683</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>24.86859442887607</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24971,16 +24973,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>15.46453942880481</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>162.6268089888803</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>195.7713030716943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>18.18891679188749</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25363,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.8576191056865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>162.6268089888788</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25445,13 +25447,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>64.38101223036855</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>77.41759119918714</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>81.49358325958872</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>237.6227554889402</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>65.259960108873</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>45.79259196819305</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>145.992785622809</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>106.3881249561084</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.0986533615242</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>52.77216054947164</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>844960.4808834102</v>
+        <v>771304.9555832052</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>846421.8838489775</v>
+        <v>771304.9555832052</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>846421.8838489776</v>
+        <v>844960.4808834101</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>846421.8838489775</v>
+        <v>846421.8838489779</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>846421.8838489776</v>
+        <v>846421.8838489777</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>846421.8838489776</v>
+        <v>846421.8838489777</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>846421.8838489775</v>
+        <v>846421.8838489776</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>846421.8838489775</v>
+        <v>846421.8838489777</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>846421.8838489776</v>
+        <v>846421.8838489775</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>846421.8838489777</v>
+        <v>846421.8838489776</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>846421.8838489775</v>
+        <v>846421.8838489776</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>846421.8838489775</v>
+        <v>846421.8838489777</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>846421.8838489775</v>
+        <v>846421.8838489776</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>846421.8838489774</v>
+        <v>846421.8838489776</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357333.370731361</v>
+        <v>321270.2120190239</v>
       </c>
       <c r="C2" t="n">
+        <v>321270.2120190238</v>
+      </c>
+      <c r="D2" t="n">
+        <v>357333.3707313609</v>
+      </c>
+      <c r="E2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="E2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="F2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="G2" t="n">
         <v>358046.9539194666</v>
@@ -26335,25 +26337,25 @@
         <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="O2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="O2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194665</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1324592.616629868</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390015206</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>188889.574742888</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3532.782152305537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237808</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>952.8885570182199</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47356.91677008694</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>922.6618692423914</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22196.27613594853</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22196.27613594852</v>
+      </c>
+      <c r="D4" t="n">
         <v>11801.276833267</v>
       </c>
-      <c r="C4" t="n">
-        <v>11600.2349971284</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11600.2349971284</v>
-      </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712838</v>
       </c>
       <c r="F4" t="n">
         <v>11600.2349971284</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>107642.9682537726</v>
       </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1086703.490985546</v>
+        <v>-908615.6201326887</v>
       </c>
       <c r="C6" t="n">
-        <v>234565.4339709297</v>
+        <v>206136.1634432305</v>
       </c>
       <c r="D6" t="n">
-        <v>238512.778360945</v>
+        <v>48999.55090143329</v>
       </c>
       <c r="E6" t="n">
-        <v>272140.378360945</v>
+        <v>268607.5962086395</v>
       </c>
       <c r="F6" t="n">
-        <v>272140.378360945</v>
+        <v>272140.3783609449</v>
       </c>
       <c r="G6" t="n">
-        <v>272140.378360945</v>
+        <v>272140.3783609449</v>
       </c>
       <c r="H6" t="n">
-        <v>272140.378360945</v>
+        <v>272140.3783609451</v>
       </c>
       <c r="I6" t="n">
         <v>272140.3783609449</v>
       </c>
       <c r="J6" t="n">
-        <v>55577.89613716421</v>
+        <v>104535.2005509623</v>
       </c>
       <c r="K6" t="n">
-        <v>271187.4898039268</v>
+        <v>272140.3783609449</v>
       </c>
       <c r="L6" t="n">
+        <v>224783.4615908581</v>
+      </c>
+      <c r="M6" t="n">
+        <v>271217.7164917025</v>
+      </c>
+      <c r="N6" t="n">
+        <v>272140.3783609448</v>
+      </c>
+      <c r="O6" t="n">
+        <v>272140.3783609448</v>
+      </c>
+      <c r="P6" t="n">
         <v>272140.378360945</v>
-      </c>
-      <c r="M6" t="n">
-        <v>272140.378360945</v>
-      </c>
-      <c r="N6" t="n">
-        <v>272140.378360945</v>
-      </c>
-      <c r="O6" t="n">
-        <v>272140.378360945</v>
-      </c>
-      <c r="P6" t="n">
-        <v>272140.3783609449</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>1086.755407162287</v>
       </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26771,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593299</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.699019368993</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,28 +26810,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,17 +26959,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162287</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>152.6905150447478</v>
+      </c>
+      <c r="E3" t="n">
         <v>3.0212934310116</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.699019368993</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299477</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.699019368993</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299477</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.699019368993</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299477</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.36886595844135</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.74264849688749</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628103</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>370.8020371402619</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610844</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>689.439814736734</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251653</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>779.5476751295869</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553357</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063148</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696337</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619417</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798236</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.12471073307702</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.337549366349069</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237128</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701842</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724794</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>377.4629606178671</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732925</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>592.2816969034462</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312872</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295525</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>446.369404877657</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325584</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.133108903673</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.41895423898379</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.421964331906992</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.959722865374615</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.42371783942159</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>58.93421126053845</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.5524065819853</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317052</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939678</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786771</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895538</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9979191894957</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.0195727358534</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.1000664815053</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.11626629220767</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475578</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873353</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33023,10 +33025,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33263,10 +33265,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33679,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953983</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34390,7 +34392,7 @@
         <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563551</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806954</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905542</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135756</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161038</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667467</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978926</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329959</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>506.0065528336489</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>397.0153901510452</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951842</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>58.8502384478096</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581275</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K3" t="n">
-        <v>239.6215216435081</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934183</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>450.1476629814279</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>476.6159189479539</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851081</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633268</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.4043520465369</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531251</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>205.4146738058224</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>318.947368354284</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405177</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687824</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>301.5830471035354</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007468</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.9380232298109</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36911,10 +36913,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859626</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222296</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
